--- a/Crosswalk_2012/Crosswalk_Flow.xlsx
+++ b/Crosswalk_2012/Crosswalk_Flow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\2018IRFiles\2018_WQAssessment\Crosswalk_2012List\Final_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IR2018\Crosswalk_2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Crosswalk" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Crosswalk!$A$1:$J$126</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -758,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +824,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>300</v>
+        <v>584</v>
       </c>
       <c r="B3">
         <v>170</v>
@@ -3456,6 +3459,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J126"/>
   <sortState ref="A2:H119">
     <sortCondition ref="A106"/>
   </sortState>
